--- a/docs/IMR-SampleSubmissionSheet_v16(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v16(LASTNAME_MMMDD).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2727B07-E5FB-4330-83FD-4AB7C51BB7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630D82CC-2CA4-44B7-A690-32388D8BF45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="742" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS (read first)" sheetId="3" r:id="rId1"/>
@@ -2450,9 +2450,6 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,15 +2516,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2685,36 +2673,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3103,9 +3103,9 @@
       </c>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" s="79" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="95" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3152,8 +3152,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="104" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="100" t="s">
+    <row r="15" spans="1:2" s="100" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="96" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3219,28 +3219,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="86" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3268,38 +3268,38 @@
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="135"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="136"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="B14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3323,33 +3323,33 @@
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-    </row>
-    <row r="18" spans="1:3" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+    </row>
+    <row r="18" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="117" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+    <row r="19" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="117" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="74" t="s">
+    <row r="20" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="73" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3357,17 +3357,17 @@
       <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       <c r="B24" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3383,60 +3383,60 @@
       <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:3" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="134" t="s">
+    <row r="27" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-    </row>
-    <row r="28" spans="1:3" s="75" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="109" t="s">
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+    </row>
+    <row r="28" spans="1:3" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="105" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="119" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="109" t="s">
+    <row r="29" spans="1:3" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="105" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="119" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="109" t="s">
+    <row r="30" spans="1:3" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="105" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="79"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="128" t="s">
         <v>185</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -3468,7 +3468,7 @@
   </sheetPr>
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:AA14"/>
     </sheetView>
   </sheetViews>
@@ -3478,20 +3478,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -3510,35 +3510,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="J3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
+      <c r="J3" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -3546,35 +3546,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -3583,26 +3583,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -3610,30 +3610,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -3641,30 +3641,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -3676,31 +3676,31 @@
       <c r="B8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -3710,31 +3710,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -3754,21 +3754,21 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -3776,37 +3776,37 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="120" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -3814,36 +3814,36 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="59"/>
-      <c r="D12" s="102" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="58"/>
+      <c r="D12" s="98" t="s">
         <v>156</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -3851,31 +3851,31 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="11"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="139"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -3883,8 +3883,8 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="57"/>
       <c r="D14" s="9" t="s">
         <v>127</v>
       </c>
@@ -3892,25 +3892,25 @@
       <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="139"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -3918,8 +3918,8 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
       <c r="E15" s="37"/>
@@ -3928,9 +3928,9 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="139"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -3954,19 +3954,19 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="30"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="122"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="11" t="s">
         <v>171</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -3990,17 +3990,17 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="57"/>
       <c r="D17" s="31"/>
       <c r="E17" s="38"/>
       <c r="F17" s="11" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -4023,10 +4023,10 @@
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="143"/>
+      <c r="A18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
@@ -4034,8 +4034,8 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="57"/>
       <c r="D19" s="31" t="s">
         <v>128</v>
       </c>
@@ -4044,25 +4044,25 @@
         <v>41</v>
       </c>
       <c r="G19" s="12"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="103"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="99"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -4070,29 +4070,29 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="31"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
@@ -4101,8 +4101,8 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="57"/>
       <c r="D21" s="31" t="s">
         <v>129</v>
       </c>
@@ -4115,30 +4115,30 @@
         <v>165</v>
       </c>
       <c r="K21" s="46"/>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="103" t="s">
         <v>158</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="49"/>
-      <c r="O21" s="107" t="s">
+      <c r="O21" s="103" t="s">
         <v>98</v>
       </c>
       <c r="P21" s="33"/>
       <c r="Q21" s="50"/>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="103" t="s">
         <v>160</v>
       </c>
       <c r="T21" s="54"/>
-      <c r="U21" s="107" t="s">
+      <c r="U21" s="103" t="s">
         <v>163</v>
       </c>
       <c r="V21" s="33"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="107" t="s">
+      <c r="W21" s="169"/>
+      <c r="X21" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="65"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="64"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
@@ -4147,38 +4147,38 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="57"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="75" t="s">
         <v>117</v>
       </c>
       <c r="K22" s="47"/>
-      <c r="L22" s="107" t="s">
+      <c r="L22" s="103" t="s">
         <v>159</v>
       </c>
       <c r="M22" s="33"/>
       <c r="N22" s="53"/>
-      <c r="O22" s="107" t="s">
+      <c r="O22" s="103" t="s">
         <v>99</v>
       </c>
       <c r="P22" s="33"/>
       <c r="Q22" s="51"/>
-      <c r="R22" s="107" t="s">
+      <c r="R22" s="103" t="s">
         <v>161</v>
       </c>
       <c r="S22" s="33"/>
-      <c r="U22" s="108"/>
+      <c r="U22" s="104"/>
       <c r="V22" s="33"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="107" t="s">
+      <c r="W22" s="56"/>
+      <c r="X22" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="65"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="64"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
@@ -4186,9 +4186,9 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:32" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="58"/>
+    <row r="23" spans="1:32" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="137"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="32"/>
       <c r="D23" s="31" t="s">
         <v>130</v>
@@ -4200,11 +4200,11 @@
       <c r="G23" s="12"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="75" t="s">
         <v>116</v>
       </c>
       <c r="K23" s="48"/>
-      <c r="L23" s="107" t="s">
+      <c r="L23" s="103" t="s">
         <v>97</v>
       </c>
       <c r="M23" s="33"/>
@@ -4212,19 +4212,19 @@
       <c r="O23" s="32"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="52"/>
-      <c r="R23" s="107" t="s">
+      <c r="R23" s="103" t="s">
         <v>162</v>
       </c>
       <c r="S23" s="33"/>
       <c r="T23" s="55"/>
-      <c r="U23" s="107" t="s">
+      <c r="U23" s="103" t="s">
         <v>96</v>
       </c>
       <c r="V23" s="33"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="65"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="64"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
@@ -4233,32 +4233,32 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="72"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="71"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
@@ -4285,191 +4285,191 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
-    </row>
-    <row r="27" spans="1:32" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+    </row>
+    <row r="27" spans="1:32" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="113" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="114"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
     </row>
     <row r="32" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5304,35 +5304,35 @@
       <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
-      <c r="U59" s="101"/>
-      <c r="V59" s="101"/>
-      <c r="W59" s="101"/>
-      <c r="X59" s="101"/>
-      <c r="Y59" s="101"/>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="101"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="97"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="97"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="97"/>
+      <c r="U59" s="97"/>
+      <c r="V59" s="97"/>
+      <c r="W59" s="97"/>
+      <c r="X59" s="97"/>
+      <c r="Y59" s="97"/>
+      <c r="Z59" s="97"/>
+      <c r="AA59" s="97"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -6122,26 +6122,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="97"/>
-    <col min="2" max="13" width="9.140625" style="96"/>
-    <col min="14" max="16384" width="9.140625" style="97"/>
+    <col min="1" max="1" width="9.140625" style="93"/>
+    <col min="2" max="13" width="9.140625" style="92"/>
+    <col min="14" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -6160,35 +6160,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="J3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
+      <c r="J3" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -6196,35 +6196,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -6232,27 +6232,27 @@
       <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="I5" s="97"/>
-      <c r="J5" s="147" t="s">
+      <c r="I5" s="93"/>
+      <c r="J5" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -6260,30 +6260,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -6291,30 +6291,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -6322,30 +6322,30 @@
       <c r="AF7" s="7"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -6353,28 +6353,28 @@
       <c r="AF8" s="7"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -6382,29 +6382,29 @@
       <c r="AF9" s="7"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="81"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="82"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
+      <c r="H10" s="81"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -6412,33 +6412,33 @@
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="81"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -6446,8 +6446,8 @@
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="157" t="s">
         <v>167</v>
       </c>
@@ -6459,22 +6459,22 @@
       <c r="I12" s="157"/>
       <c r="J12" s="157"/>
       <c r="K12" s="157"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -6482,8 +6482,8 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="157"/>
       <c r="D13" s="157"/>
       <c r="E13" s="157"/>
@@ -6493,22 +6493,22 @@
       <c r="I13" s="157"/>
       <c r="J13" s="157"/>
       <c r="K13" s="157"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -6516,8 +6516,8 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
       <c r="E14" s="157"/>
@@ -6527,22 +6527,22 @@
       <c r="I14" s="157"/>
       <c r="J14" s="157"/>
       <c r="K14" s="157"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -6550,32 +6550,32 @@
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="81"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -6583,33 +6583,33 @@
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="81"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -6617,42 +6617,42 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="120" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="120" t="s">
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="120" t="s">
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="120" t="s">
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="W17" s="63"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="96"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="92"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -6660,40 +6660,40 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="81" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="81"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="81" t="s">
+      <c r="K18" s="81"/>
+      <c r="L18" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="85"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81" t="s">
+      <c r="M18" s="167"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="84"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="81" t="s">
+      <c r="R18" s="166"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="V18" s="86"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="96"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="92"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -6701,32 +6701,32 @@
       <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="96"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="92"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -6734,20 +6734,20 @@
       <c r="AE19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -6755,232 +6755,232 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="146"/>
-      <c r="C21" s="123" t="s">
+      <c r="B21" s="142"/>
+      <c r="C21" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="126" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="123"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="126" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="123"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="126" t="s">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="123"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="129" t="s">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="123"/>
     </row>
     <row r="27" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
       <c r="O28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="158" t="s">
+      <c r="P28" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="159" t="s">
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -7002,7 +7002,7 @@
       <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="105">
+      <c r="H29" s="101">
         <v>7</v>
       </c>
       <c r="I29" s="1">
@@ -7039,7 +7039,7 @@
       <c r="U29" s="1">
         <v>6</v>
       </c>
-      <c r="V29" s="105">
+      <c r="V29" s="101">
         <v>7</v>
       </c>
       <c r="W29" s="1">
@@ -7072,7 +7072,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="106" t="s">
+      <c r="H30" s="102" t="s">
         <v>150</v>
       </c>
       <c r="I30" s="3"/>
@@ -7091,7 +7091,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="106"/>
+      <c r="V30" s="102"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -7112,7 +7112,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="106" t="s">
+      <c r="H31" s="102" t="s">
         <v>151</v>
       </c>
       <c r="I31" s="3"/>
@@ -7131,7 +7131,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="106"/>
+      <c r="V31" s="102"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -7152,7 +7152,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="106" t="s">
+      <c r="H32" s="102" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="3"/>
@@ -7171,7 +7171,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="106"/>
+      <c r="V32" s="102"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -7194,12 +7194,12 @@
       <c r="G33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="106"/>
+      <c r="H33" s="102"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="97"/>
+      <c r="M33" s="93"/>
       <c r="O33" s="1" t="s">
         <v>4</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="106"/>
+      <c r="V33" s="102"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -7232,7 +7232,7 @@
       <c r="G34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="106"/>
+      <c r="H34" s="102"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -7251,7 +7251,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="106"/>
+      <c r="V34" s="102"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -7272,7 +7272,7 @@
       <c r="G35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="106"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -7289,7 +7289,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="106"/>
+      <c r="V35" s="102"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -7310,7 +7310,7 @@
       <c r="G36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="106"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -7327,7 +7327,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="106"/>
+      <c r="V36" s="102"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -7348,7 +7348,7 @@
       <c r="G37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="106"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -7367,7 +7367,7 @@
       <c r="U37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V37" s="106"/>
+      <c r="V37" s="102"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -7415,75 +7415,75 @@
       <c r="J40" s="19"/>
     </row>
     <row r="43" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="163"/>
-      <c r="W43" s="163"/>
-      <c r="X43" s="163"/>
-      <c r="Y43" s="163"/>
-      <c r="Z43" s="163"/>
-      <c r="AA43" s="163"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
+      <c r="X43" s="156"/>
+      <c r="Y43" s="156"/>
+      <c r="Z43" s="156"/>
+      <c r="AA43" s="156"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="159" t="s">
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="160"/>
-      <c r="M44" s="160"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
       <c r="O44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="158" t="s">
+      <c r="P44" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="158"/>
-      <c r="T44" s="158"/>
-      <c r="U44" s="158"/>
-      <c r="V44" s="159" t="s">
+      <c r="Q44" s="153"/>
+      <c r="R44" s="153"/>
+      <c r="S44" s="153"/>
+      <c r="T44" s="153"/>
+      <c r="U44" s="153"/>
+      <c r="V44" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="W44" s="160"/>
-      <c r="X44" s="160"/>
-      <c r="Y44" s="160"/>
-      <c r="Z44" s="160"/>
-      <c r="AA44" s="160"/>
+      <c r="W44" s="155"/>
+      <c r="X44" s="155"/>
+      <c r="Y44" s="155"/>
+      <c r="Z44" s="155"/>
+      <c r="AA44" s="155"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -7505,7 +7505,7 @@
       <c r="G45" s="1">
         <v>6</v>
       </c>
-      <c r="H45" s="105">
+      <c r="H45" s="101">
         <v>7</v>
       </c>
       <c r="I45" s="1">
@@ -7542,7 +7542,7 @@
       <c r="U45" s="1">
         <v>6</v>
       </c>
-      <c r="V45" s="105">
+      <c r="V45" s="101">
         <v>7</v>
       </c>
       <c r="W45" s="1">
@@ -7571,7 +7571,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="106"/>
+      <c r="H46" s="102"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -7586,7 +7586,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="106"/>
+      <c r="V46" s="102"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -7603,7 +7603,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="106"/>
+      <c r="H47" s="102"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -7618,7 +7618,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="106"/>
+      <c r="V47" s="102"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
@@ -7635,7 +7635,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="106"/>
+      <c r="H48" s="102"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -7650,7 +7650,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="106"/>
+      <c r="V48" s="102"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -7667,12 +7667,12 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="106"/>
+      <c r="H49" s="102"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="97"/>
+      <c r="M49" s="93"/>
       <c r="O49" s="1" t="s">
         <v>4</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="106"/>
+      <c r="V49" s="102"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
@@ -7699,7 +7699,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="106"/>
+      <c r="H50" s="102"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -7714,7 +7714,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="106"/>
+      <c r="V50" s="102"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
@@ -7731,7 +7731,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="106"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -7746,7 +7746,7 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="106"/>
+      <c r="V51" s="102"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -7763,7 +7763,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="106"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -7778,7 +7778,7 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="106"/>
+      <c r="V52" s="102"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
@@ -7797,7 +7797,7 @@
       <c r="G53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H53" s="106"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -7816,7 +7816,7 @@
       <c r="U53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V53" s="106"/>
+      <c r="V53" s="102"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
@@ -7843,12 +7843,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:U44"/>
-    <mergeCell ref="V44:AA44"/>
-    <mergeCell ref="A27:AA27"/>
-    <mergeCell ref="A43:AA43"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="C12:K14"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="H28:M28"/>
@@ -7863,13 +7864,12 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A17:D19"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:U44"/>
+    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="A27:AA27"/>
+    <mergeCell ref="A43:AA43"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7894,20 +7894,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -7926,35 +7926,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="J3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
+      <c r="J3" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -7962,35 +7962,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -7999,26 +7999,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -8026,30 +8026,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -8057,30 +8057,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -8092,31 +8092,31 @@
       <c r="B8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -8126,31 +8126,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -8165,21 +8165,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -8195,21 +8195,21 @@
       <c r="F11" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -8224,21 +8224,21 @@
       <c r="F12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -8257,21 +8257,21 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -8368,161 +8368,161 @@
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="123" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="122" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="126"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="163"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="163"/>
-      <c r="AA22" s="163"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -9321,35 +9321,35 @@
       <c r="J46" s="19"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="163"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="163"/>
-      <c r="L49" s="163"/>
-      <c r="M49" s="163"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="163"/>
-      <c r="P49" s="163"/>
-      <c r="Q49" s="163"/>
-      <c r="R49" s="163"/>
-      <c r="S49" s="163"/>
-      <c r="T49" s="163"/>
-      <c r="U49" s="163"/>
-      <c r="V49" s="163"/>
-      <c r="W49" s="163"/>
-      <c r="X49" s="163"/>
-      <c r="Y49" s="163"/>
-      <c r="Z49" s="163"/>
-      <c r="AA49" s="163"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="156"/>
+      <c r="S49" s="156"/>
+      <c r="T49" s="156"/>
+      <c r="U49" s="156"/>
+      <c r="V49" s="156"/>
+      <c r="W49" s="156"/>
+      <c r="X49" s="156"/>
+      <c r="Y49" s="156"/>
+      <c r="Z49" s="156"/>
+      <c r="AA49" s="156"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -10096,13 +10096,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A22:AA22"/>
-    <mergeCell ref="A49:AA49"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C8:G9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -10113,6 +10106,13 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A22:AA22"/>
+    <mergeCell ref="A49:AA49"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10136,20 +10136,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -10165,32 +10165,32 @@
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="J3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
+      <c r="J3" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -10198,32 +10198,32 @@
       <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -10232,21 +10232,21 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -10254,27 +10254,27 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -10282,27 +10282,27 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -10314,28 +10314,28 @@
       <c r="B8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -10345,28 +10345,28 @@
     <row r="9" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -10381,18 +10381,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -10408,18 +10408,18 @@
       <c r="F11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -10430,22 +10430,22 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="77"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -10463,18 +10463,18 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -10500,380 +10500,325 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="123" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="125"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="121"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="128"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="124"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="131"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="127"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="168" t="s">
+      <c r="C19" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168" t="s">
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168" t="s">
+      <c r="H19" s="161"/>
+      <c r="I19" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="168"/>
+      <c r="J19" s="161"/>
       <c r="K19" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="168" t="s">
+      <c r="L19" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168" t="s">
+      <c r="M19" s="161"/>
+      <c r="N19" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="168"/>
-      <c r="P19" s="168" t="s">
+      <c r="O19" s="161"/>
+      <c r="P19" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="168"/>
-      <c r="R19" s="165" t="s">
+      <c r="Q19" s="161"/>
+      <c r="R19" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="167"/>
-      <c r="V21" s="167"/>
-      <c r="W21" s="167"/>
-      <c r="X21" s="167"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="167"/>
-      <c r="T22" s="167"/>
-      <c r="U22" s="167"/>
-      <c r="V22" s="167"/>
-      <c r="W22" s="167"/>
-      <c r="X22" s="167"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="167"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="167"/>
-      <c r="X23" s="167"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="167"/>
-      <c r="X24" s="167"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>6</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="167"/>
-      <c r="S25" s="167"/>
-      <c r="T25" s="167"/>
-      <c r="U25" s="167"/>
-      <c r="V25" s="167"/>
-      <c r="W25" s="167"/>
-      <c r="X25" s="167"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="167"/>
-      <c r="W26" s="167"/>
-      <c r="X26" s="167"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:X13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C8:G9"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
@@ -10890,6 +10835,61 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:X13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10915,20 +10915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -10947,35 +10947,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="J3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146"/>
+      <c r="J3" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -10983,35 +10983,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
+      <c r="J4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -11020,26 +11020,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -11047,30 +11047,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -11078,30 +11078,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -11113,31 +11113,31 @@
       <c r="B8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="153"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -11147,31 +11147,31 @@
     <row r="9" spans="1:32" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -11186,21 +11186,21 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -11212,27 +11212,27 @@
       <c r="C11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="144"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="146"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -11242,21 +11242,21 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -11273,23 +11273,23 @@
       <c r="H13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="148"/>
-      <c r="J13" s="150"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="146"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -11327,26 +11327,26 @@
       <c r="H15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="148"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="94" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="87" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="23"/>
       <c r="H17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="148"/>
-      <c r="J17" s="150"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
@@ -11356,6 +11356,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:AA13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -11368,12 +11374,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
